--- a/wolf/Excel/Chat_快捷短语.xlsx
+++ b/wolf/Excel/Chat_快捷短语.xlsx
@@ -34,10 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -48,20 +47,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -69,6 +54,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -76,13 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -90,7 +75,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -183,19 +182,19 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="166" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,6 +510,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -519,259 +521,157 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="22" r="1">
-      <c r="A1" s="5" t="str">
+    <row customHeight="true" ht="24" r="1">
+      <c r="A1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="2" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <v>boolean</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row customHeight="true" ht="22" r="2">
-      <c r="A2" s="5" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>chat</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>chattrans</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <v>isExtension</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="5" t="str">
-        <v>id</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>聊天</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <v>翻译</v>
-      </c>
-      <c r="D3" s="6" t="str">
-        <v>是否为拓展</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row customHeight="true" ht="22" r="4">
+      <c r="B1" s="5" t="str">
+        <v>string[]</v>
+      </c>
+      <c r="C1" s="5" t="str">
+        <v>string[][]</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="24" r="2">
+      <c r="A2" s="4" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <v>Chats</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <v>ChatChilds</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="25" r="3">
+      <c r="A3" s="4" t="str">
+        <v>唯一ID</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row customHeight="true" ht="24" r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="str">
-        <v>Language</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="5">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row customHeight="true" ht="25" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="str">
-        <v>Chat_chat_1</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <v>我是{1}</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="6">
+      <c r="B5" s="7" t="str">
+        <v>I Am {0}|我是{0}</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v>Student|学生||Detective|侦探||Murderer|凶手</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="25" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <v>Chat_chat_2</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>凶手是谁？</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="7">
+      <c r="B6" s="2" t="str">
+        <v>Who Is The Murderer?|凶手是谁？</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="str">
-        <v>Chat_chat_3</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <v>😡气死我了</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="8">
+      <c r="B7" s="2" t="str">
+        <v>It Ticks Me Off|0.o 气死我了</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <v>Chat_chat_4</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>救命💦</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="9">
+      <c r="B8" s="2" t="str">
+        <v>Help!|救命啊！</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <v>Chat_chat_5</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <v>别刀我😭</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="10">
+      <c r="B9" s="2" t="str">
+        <v>Thank You!|谢谢你 ^_^</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <v>Chat_chat_6</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v>谢谢你🙏</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="11">
+      <c r="B10" s="2" t="str">
+        <v>Hello!|你好！</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="str">
-        <v>Chat_chat_7</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <v>🤺退！🤺退！🤺退！</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="12">
+      <c r="B11" s="2" t="str">
+        <v>Don't Kill Me :(((|别刀我 QAQ</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <v>Chat_chat_8</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>💯满分操作！</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row customHeight="true" ht="23" r="13">
+      <c r="B12" s="2" t="str">
+        <v>Stay Away From Me!|&lt;--退！&lt;--退！&lt;--退！</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="str">
-        <v>Chat_chat_9</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <v>🎭我要开始表演了~</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row customHeight="true" ht="22" r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row customHeight="true" ht="17" r="15"/>
-    <row customHeight="true" ht="17" r="16"/>
-    <row customHeight="true" ht="17" r="17"/>
-    <row customHeight="true" ht="17" r="18"/>
-    <row customHeight="true" ht="17" r="19"/>
-    <row customHeight="true" ht="17" r="20"/>
+      <c r="B13" s="2" t="str">
+        <v>Perfect!|*0* 满分操作！</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row customHeight="true" ht="24" r="14">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <v>Show Time!|)*o*( 我要开始表演了~</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row customHeight="true" ht="19" r="15"/>
+    <row customHeight="true" ht="19" r="16"/>
+    <row customHeight="true" ht="19" r="17"/>
+    <row customHeight="true" ht="19" r="18"/>
+    <row customHeight="true" ht="19" r="19"/>
+    <row customHeight="true" ht="19" r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>